--- a/regression/testcase_ConvertLab_Main.xlsx
+++ b/regression/testcase_ConvertLab_Main.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -15,13 +15,1143 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:
+整理一下用例的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>顺</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>序，大致和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>行</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>顺</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>序相同，比如登</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>录</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>的用例</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>应该</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>排在第一个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:
+梳理一下</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>优</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>先</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>级</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>，全部都是1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>级</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>次冒烟只有1小</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>时</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>行不完</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 登</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>录</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>用例放在最前
+2 自</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>动</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>登入功能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">验证
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 忘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>密</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>码</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>功能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">验证
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>联</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>系我</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>们</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>功能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>验证
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:
+增加</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>浏览</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>器提示用例，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>优</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>先</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>级设</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>定</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>最高</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>也是登</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>录</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>模板
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>修改用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>户</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>的生命周期名称
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>提高用例的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>复杂</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>性：来源使用自定</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>义</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>来源、修改用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>户</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阶</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>段名称。
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>了增加覆盖率，除了文件</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>导</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>入之外加入通</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>过营销</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>活</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>动</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>、二</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>维码扫</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>描、微</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>页</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>面等各</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>种</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>客</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>户</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>加入方式</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>图标</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>包括折</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>线</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>和</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>饼图
+Done</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>需要check</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>营销</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>活</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>动</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>和微信</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>图</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>文的数量是不是完整
+Done</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例简单描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>执行步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -30,15 +1160,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用例类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作者名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例类型</t>
+    <t>是否自动化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,15 +1184,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例简单描述</t>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试输入用户名和密码是否能够登入系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测客户test1、特殊test2、test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 test1使用正确的用户名和密码登录系统
+2 test2使用正确的用户名和错误的密码登录系统
+3 test2使用错误的用户名和正确的密码登录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 test1成功登陆系统主页
+2 test2不能登陆且系统跳出提示框：用户名/密码错误
+3 test3不能登陆且系统跳出提示框：用户名/密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试登录页面中自动登录功能有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ConbertLab系统登录页面输入用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择自动登入
+2 退出系统，在浏览器中输入系统地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 不需要再次输入账号密码信息，成功登入ConvertLab系统主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测登录页面中忘记密码功能有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ConvertLab系统登录页面输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击忘记密码
+2 输入创建用户是填写的手机号码，验证码，点击下一步
+3 输入手机收到的验证码，输入新的用户密码，点击下一步
+4 点击去登入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功重设与预期效果一致的新密码
+2 使用新密码成功登入系统
+3 使用旧密码无法登入系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码相关的安全性001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测需要输入密码的环境，若密码输错三次，开启验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统的登录页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登录页面，输入正确的用户名【24】，密码输错三次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 输错三次密码，页面开启验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>验证码正确拖动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确拖动验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 执行用例：密码相关的安全性001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登录页面，输入正确的用户名【24】和密码，使用正确的验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 页面显示验证通过，并登录到系统主页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误拖动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误拖动验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登录页面，输入正确的用户名【24】和密码，使用错误的验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 页面显示验证失败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码多次刷新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测验证码刷新可用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登录页面，输入正确的用户名【24】和密码，点击验证码刷新按钮，对新的验证码进行验证</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功刷新出新的验证图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码多次尝试拖动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多次尝试验证</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登录页面，输入正确的用户名【24】和密码，对显示的验证码图片多次拖动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 页面显示：多次尝试，系统自动刷新验证码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测登录页面的联系我们功能有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 进入ConvertLab系统的登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 点击登录页面的【联系我们】链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功进入预设页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非谷歌浏览器登录系统是否能够跳出提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用IE、火狐、360等非谷歌浏览器登录ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统登入到ConvertLab系统并跳出提示框信息：您当前使用的浏览器非谷歌浏览器，请切换到谷歌浏览器以获得最佳体验!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,23 +1420,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertLab</t>
+    <t>检查客户数量01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过增加各种【生命周期】的客户，然后精确验证主页客户数的变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,41 +1432,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查客户数量01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱鸿宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查客户新增情况分析01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 通过客户导入功能，导入100个用户，每种【生命周期】遍历
+    <t>1 通过客户导入功能，导入100个用户（导入文件包含手机号码），每种【生命周期】遍历
 2 点击主页，观察用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 通过客户导入功能，导入100个用户，多种【来源】、【营销活动】和遍历【阶段】
-2 点击主页显示详细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,7 +1442,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通过增加各种【生命周期】的客户，然后精确验证主页客户数的变化</t>
+    <t>邱鸿宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查客户数量02</t>
+  </si>
+  <si>
+    <t>通过修改各种客户的【生命周期】名称，然后验证主页客户【生命周期阶段】的变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 客户设置-客户生命周期，修改个阶段生命周期的名称
+2 点击主页，观察主页客户【生命周期阶段】名称和数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 各种【生命周期】名称相应改变，数值相对应保持不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查客户新增情况分析01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,16 +1471,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 各种【来源】、【营销活动】和【阶段】的客户新增情况图表显示准确
+    <t>1 通过客户导入功能，导入100个用户，多种【来源】、【营销活动】和【阶段】
+2 点击主页显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 各种【来源】、【营销活动】和【阶段】的客户新增情况图表显示准确，包括折线图和饼图
 2 【时间周期】日周月和阶段显示的图表显示准确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>检查客户新增情况分析02</t>
+  </si>
+  <si>
+    <t>通过导入各种【来源】、【营销活动】、【阶段】增加客户，来源使用自定义，并修改客户客户阶段，然后在主页查询客户的新增情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 存在客户excel文件（包含手机号码、当前阶段字段）
+3 来源管理：自定义来源信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 通过客户导入功能，导入100个用户，多种【来源】（来源选择来源管理下的自定义来源）、【营销活动】和【阶段】
+2 点击主页显示详细信息
+3 修改导入表格，修改客户阶段字段
+4 点击主页显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 各种【来源】、【营销活动】和【阶段】的客户新增情况图表显示准确，包括折线图、饼图
+2 【时间周期】日周月和阶段显示的图表显示准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查客户新增情况分析03</t>
+  </si>
+  <si>
+    <t>通过扫二维码关注公众号增加客户，然后在主页查询客户的新增情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 通过线下活动，100位人员扫二维码关注公众号成功新客户
+2 点击主页显示详细信息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查客户新增情况分析04</t>
+  </si>
+  <si>
+    <t>通过访问微信授权微页面增加客户，然后在主页查询客户的新增情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 100位测试人员通过访问微信授权的微页面成功新客户
+2 点击主页显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查客户新增情况分析05</t>
+  </si>
+  <si>
+    <t>通过提交页面表单增加客户，然后在主页查询客户的新增情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 100位测试人员通过提交微页面表单成功新客户
+2 点击主页显示详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看营销日历01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查看营销日历的显示是否准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看营销日历01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,19 +1556,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 查看日历上显示的营销活动名称和时间周期是否正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1 点击主页上的月周日和上下页翻页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1 点击主页上的月周日和上下页翻页
+2 群发微信图文到测试目标组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 查看日历上显示的营销活动名称和时间周期是否正确，数量是否统计完整
+2 查看日历中是否准确显示了微信图文名称和时间，数量是否统计完整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试分辨率为1280情况下系统UI符合预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 修改pc端的分辨率为：1280
+2 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 检测在1280分辨率下系统UI显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在分辨率为1280下的UI显示与实际设计保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统图标样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测系统中图表样式显示优化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到Convert Lab系统
+2 存在微页面统计折线图
+3 分析中心中，存在客户分析饼图
+4 首页中存在dashboard的饼图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 查看任一微页面的统计折线图
+2 查看分析中心-客户分析的统计饼图
+3 查看首页-dashboard的饼图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面统计中的折线图将线条显示光滑曲线，样式与微应用监测里的图一致
+2  分析中心的客户分析、以及首页dashboard的饼图需要在图上直接显示每个分块的标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint 0.34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +1655,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="dengxian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="dengxian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +1720,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,6 +1756,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -251,11 +1789,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -264,14 +1799,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -334,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +1935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,309 +2143,929 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="20.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="50.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
-    <col min="9" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="9" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="81" customHeight="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="53.25" customHeight="1">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="77.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="45.75" customHeight="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="54">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="54">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="54">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="67.5">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="94.5">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="67.5">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="67.5">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="67.5">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" ht="67.5">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="7">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="54">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7">
         <v>2</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="L20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="114">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="B21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="L21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21">
+      <formula1>"None,Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M21">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K9 K21">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I9 I21">
+      <formula1>"功能,异常,性能,安全"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -889,7 +3075,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -903,7 +3089,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
